--- a/Shading Trees/Charts/CO2 Change by Activities.xlsx
+++ b/Shading Trees/Charts/CO2 Change by Activities.xlsx
@@ -508,7 +508,7 @@
         <v>9.058772945991223e-06</v>
       </c>
       <c r="F4">
-        <v>-0.04934919771600121</v>
+        <v>-0.002466068211839811</v>
       </c>
       <c r="G4">
         <v>9.903041456316153e-09</v>

--- a/Shading Trees/Charts/CO2 Change by Activities.xlsx
+++ b/Shading Trees/Charts/CO2 Change by Activities.xlsx
@@ -453,19 +453,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>-3.692863781434852e-08</v>
+        <v>-0.0001976474160072517</v>
       </c>
       <c r="D2">
-        <v>-7.278194885884659e-06</v>
+        <v>-0.03895395257964651</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>-3.692863781434852e-08</v>
+        <v>-0.0001976474160072517</v>
       </c>
       <c r="G2">
-        <v>-1.846431891827649e-07</v>
+        <v>-0.0009882370800364804</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -476,19 +476,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>2.937341214703793e-08</v>
+        <v>0.0001578905695355237</v>
       </c>
       <c r="D3">
-        <v>1.174936485881517e-07</v>
+        <v>0.0006315622781420949</v>
       </c>
       <c r="E3">
-        <v>3.591404196257031e-08</v>
+        <v>0.0001930483428689289</v>
       </c>
       <c r="F3">
-        <v>5.444635475804205e-08</v>
+        <v>0.0002926648738716953</v>
       </c>
       <c r="G3">
-        <v>1.468670607351896e-07</v>
+        <v>0.0007894528476777296</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -499,19 +499,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>1.98060829195712e-09</v>
+        <v>1.064393317176237e-05</v>
       </c>
       <c r="D4">
-        <v>7.92243316782848e-09</v>
+        <v>4.257573268704948e-05</v>
       </c>
       <c r="E4">
-        <v>9.058772945991223e-06</v>
+        <v>0.04868250540540942</v>
       </c>
       <c r="F4">
-        <v>-0.002466068211839811</v>
+        <v>-13.26935995645545</v>
       </c>
       <c r="G4">
-        <v>9.903041456316153e-09</v>
+        <v>5.321966585881271e-05</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -522,19 +522,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>-8.349109975824831e-05</v>
+        <v>-0.4469435028713633</v>
       </c>
       <c r="D5">
-        <v>-1.402324611987638e-07</v>
+        <v>-0.0007506906419512127</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>-3.505811529969094e-08</v>
+        <v>-0.0001876726604878032</v>
       </c>
       <c r="G5">
-        <v>-1.752905767204993e-07</v>
+        <v>-0.0009383633024384608</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -545,19 +545,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>-3.58256580235139e-08</v>
+        <v>-0.0001917137259189322</v>
       </c>
       <c r="D6">
-        <v>-7.060810666814632e-06</v>
+        <v>-0.0377844929074449</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>-3.58256580235139e-08</v>
+        <v>-0.0001917137259189322</v>
       </c>
       <c r="G6">
-        <v>-1.791282900898139e-07</v>
+        <v>-0.0009585686295946472</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -568,19 +568,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>-4.923688157187911e-08</v>
+        <v>-0.0002635808873466816</v>
       </c>
       <c r="D7">
-        <v>-1.969475262875164e-07</v>
+        <v>-0.001054323549386726</v>
       </c>
       <c r="E7">
-        <v>-0.0002251963362027709</v>
+        <v>-1.205548528532802</v>
       </c>
       <c r="F7">
-        <v>-3.641714052093903e-05</v>
+        <v>-0.194952683959194</v>
       </c>
       <c r="G7">
-        <v>-2.461844078593955e-07</v>
+        <v>-0.001317904436733408</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>-3.898405452673614e-05</v>
+        <v>-0.2086763856211746</v>
       </c>
       <c r="C8">
-        <v>-2.154966924905466e-07</v>
+        <v>-0.001153584832461974</v>
       </c>
       <c r="D8">
-        <v>-2.100994390730193e-05</v>
+        <v>-0.1124696631220559</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-2.154966924905466e-07</v>
+        <v>-0.001153584832461974</v>
       </c>
       <c r="G8">
-        <v>-1.077483460676376e-06</v>
+        <v>-0.00576792416231342</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -614,19 +614,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>-1.558390572142798e-08</v>
+        <v>-8.342150408757742e-05</v>
       </c>
       <c r="D9">
-        <v>-1.342809639481857e-05</v>
+        <v>-0.07188133868055502</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>-1.558390572142798e-08</v>
+        <v>-8.342150408757742e-05</v>
       </c>
       <c r="G9">
-        <v>-7.791952860713991e-08</v>
+        <v>-0.0004171075204375541</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -637,19 +637,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>-3.15002104400719e-07</v>
+        <v>-0.001682610468524359</v>
       </c>
       <c r="D10">
-        <v>-4.796071209511865e-06</v>
+        <v>-0.02566014622885859</v>
       </c>
       <c r="E10">
-        <v>-3.491693831847442e-07</v>
+        <v>-0.001833768491138699</v>
       </c>
       <c r="F10">
-        <v>-7.088878106742413e-07</v>
+        <v>-0.003766482242696156</v>
       </c>
       <c r="G10">
-        <v>-1.575010529109022e-06</v>
+        <v>-0.008413052342632454</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -660,19 +660,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>-6.127894636165365e-08</v>
+        <v>-0.0003279819488639646</v>
       </c>
       <c r="D11">
-        <v>-7.040451919237967e-06</v>
+        <v>-0.03767870238334581</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>-3.905102403223282e-06</v>
+        <v>-0.0208990598496257</v>
       </c>
       <c r="G11">
-        <v>-4.577220079227118e-05</v>
+        <v>-0.2448995292497784</v>
       </c>
     </row>
   </sheetData>
